--- a/Model Inputs ARFORMOTEROL.xlsx
+++ b/Model Inputs ARFORMOTEROL.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4DDE0701-012E-46BF-B786-4632ABCF2F1B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D333E3B0-5304-4609-A47E-3EA5E3F973AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="660" yWindow="96" windowWidth="16104" windowHeight="11208" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="162">
   <si>
     <t>Generic</t>
   </si>
@@ -54,9 +54,6 @@
     <t>EEE</t>
   </si>
   <si>
-    <t>Auto</t>
-  </si>
-  <si>
     <t>Retail</t>
   </si>
   <si>
@@ -468,12 +465,6 @@
     <t>R&amp;D Infrastructure Cost ($mil):</t>
   </si>
   <si>
-    <t>Is this needed?</t>
-  </si>
-  <si>
-    <t>password: Vertice</t>
-  </si>
-  <si>
     <t>Default value is 2/171.3</t>
   </si>
   <si>
@@ -505,6 +496,31 @@
   </si>
   <si>
     <t>Brand</t>
+  </si>
+  <si>
+    <t>Internal/External:</t>
+  </si>
+  <si>
+    <t>Internal</t>
+  </si>
+  <si>
+    <t>External</t>
+  </si>
+  <si>
+    <t>Use if External</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>Run Parameter Scan and 
+Save Results to Database?</t>
+  </si>
+  <si>
+    <t>Arf</t>
   </si>
 </sst>
 </file>
@@ -512,10 +528,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
-    <numFmt numFmtId="166" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -582,7 +598,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -622,12 +638,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -699,13 +709,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -753,16 +762,10 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
@@ -775,65 +778,126 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="5" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="8" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="6" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="5" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="8" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="5" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="9" fontId="0" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
@@ -847,42 +911,35 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="9" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="4">
-    <cellStyle name="Comma" xfId="3" builtinId="3"/>
+  <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -1192,13 +1249,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
-  <dimension ref="A1:O98"/>
+  <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J60" sqref="J60"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="F64" sqref="F64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29.44140625" style="4" customWidth="1"/>
     <col min="2" max="2" width="19" customWidth="1"/>
@@ -1212,7 +1269,7 @@
   <sheetData>
     <row r="1" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -1230,7 +1287,7 @@
     </row>
     <row r="2" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
@@ -1251,434 +1308,447 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="J4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
+      <c r="C4" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D4" s="60"/>
+      <c r="E4" s="60"/>
+      <c r="F4" s="60"/>
+      <c r="J4" s="62" t="s">
+        <v>55</v>
+      </c>
+      <c r="K4" s="62"/>
+      <c r="L4" s="62"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="54" t="s">
-        <v>144</v>
-      </c>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="J5" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="K5" s="59"/>
-      <c r="L5" s="59"/>
+        <v>151</v>
+      </c>
+      <c r="B5" s="47" t="s">
+        <v>161</v>
+      </c>
+      <c r="C5" s="61"/>
+      <c r="D5" s="61"/>
+      <c r="E5" s="61"/>
+      <c r="F5" s="61"/>
+      <c r="J5" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="K5" s="55"/>
+      <c r="L5" s="55"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>156</v>
-      </c>
-      <c r="C6" s="49"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="49"/>
-      <c r="F6" s="49"/>
-      <c r="J6" s="46" t="s">
-        <v>141</v>
-      </c>
-      <c r="K6" s="46"/>
-      <c r="L6" s="46"/>
+        <v>152</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>153</v>
+      </c>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
+      <c r="F6" s="59"/>
+      <c r="J6" s="66" t="s">
+        <v>140</v>
+      </c>
+      <c r="K6" s="66"/>
+      <c r="L6" s="66"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="49"/>
-      <c r="D7" s="49"/>
-      <c r="E7" s="49"/>
-      <c r="F7" s="49"/>
-      <c r="J7" s="58" t="s">
-        <v>134</v>
-      </c>
-      <c r="K7" s="58"/>
-      <c r="L7" s="58"/>
+        <v>9</v>
+      </c>
+      <c r="B7" s="45" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
+      <c r="F7" s="59"/>
+      <c r="J7" s="54" t="s">
+        <v>133</v>
+      </c>
+      <c r="K7" s="54"/>
+      <c r="L7" s="54"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="B8" s="25"/>
-      <c r="C8" s="49"/>
-      <c r="D8" s="49"/>
-      <c r="E8" s="49"/>
-      <c r="F8" s="49"/>
-      <c r="J8" s="55" t="s">
-        <v>58</v>
-      </c>
-      <c r="K8" s="56"/>
-      <c r="L8" s="57"/>
+        <v>64</v>
+      </c>
+      <c r="B8" s="47"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="59"/>
+      <c r="J8" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="K8" s="52"/>
+      <c r="L8" s="53"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="49"/>
-      <c r="D9" s="49"/>
-      <c r="E9" s="49"/>
-      <c r="F9" s="49"/>
-      <c r="J9" s="43" t="s">
-        <v>135</v>
-      </c>
-      <c r="K9" s="44"/>
-      <c r="L9" s="45"/>
+      <c r="A9" s="18" t="s">
+        <v>154</v>
+      </c>
+      <c r="B9" s="45" t="s">
+        <v>156</v>
+      </c>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="59"/>
+      <c r="J9" s="63" t="s">
+        <v>134</v>
+      </c>
+      <c r="K9" s="64"/>
+      <c r="L9" s="65"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="B10" s="25"/>
-      <c r="C10" s="49"/>
-      <c r="D10" s="49"/>
-      <c r="E10" s="49"/>
-      <c r="F10" s="49"/>
+        <v>96</v>
+      </c>
+      <c r="B10" s="47"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
-        <v>96</v>
-      </c>
-      <c r="B11" s="26">
-        <v>11</v>
-      </c>
-      <c r="C11" s="49"/>
-      <c r="D11" s="49"/>
-      <c r="E11" s="49"/>
-      <c r="F11" s="49"/>
+        <v>97</v>
+      </c>
+      <c r="B11" s="47"/>
+      <c r="C11" s="56"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
+      <c r="F11" s="58"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="B12" s="26">
-        <v>2021</v>
-      </c>
-      <c r="C12" s="49"/>
-      <c r="D12" s="49"/>
-      <c r="E12" s="49"/>
-      <c r="F12" s="49"/>
+        <v>95</v>
+      </c>
+      <c r="B12" s="45">
+        <v>11</v>
+      </c>
+      <c r="C12" s="56"/>
+      <c r="D12" s="57"/>
+      <c r="E12" s="57"/>
+      <c r="F12" s="58"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
-        <v>62</v>
-      </c>
-      <c r="B13" s="25"/>
-      <c r="C13" s="49"/>
-      <c r="D13" s="49"/>
-      <c r="E13" s="49"/>
-      <c r="F13" s="49"/>
-      <c r="J13" s="53" t="s">
-        <v>145</v>
-      </c>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
+        <v>68</v>
+      </c>
+      <c r="B13" s="45">
+        <v>2021</v>
+      </c>
+      <c r="C13" s="56"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
+      <c r="F13" s="58"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
-        <v>63</v>
-      </c>
-      <c r="B14" s="25"/>
-      <c r="C14" s="49"/>
-      <c r="D14" s="49"/>
-      <c r="E14" s="49"/>
-      <c r="F14" s="49"/>
+        <v>61</v>
+      </c>
+      <c r="B14" s="47"/>
+      <c r="C14" s="56"/>
+      <c r="D14" s="57"/>
+      <c r="E14" s="57"/>
+      <c r="F14" s="58"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="B15" s="25"/>
-      <c r="C15" s="49"/>
-      <c r="D15" s="49"/>
-      <c r="E15" s="49"/>
-      <c r="F15" s="49"/>
+        <v>62</v>
+      </c>
+      <c r="B15" s="47"/>
+      <c r="C15" s="56"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="57"/>
+      <c r="F15" s="58"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B16" s="25"/>
-      <c r="C16" s="49"/>
-      <c r="D16" s="49"/>
-      <c r="E16" s="49"/>
-      <c r="F16" s="49"/>
+        <v>101</v>
+      </c>
+      <c r="B16" s="47"/>
+      <c r="C16" s="56"/>
+      <c r="D16" s="57"/>
+      <c r="E16" s="57"/>
+      <c r="F16" s="58"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="11" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="27">
-        <v>0.75</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
+        <v>65</v>
+      </c>
+      <c r="B17" s="47"/>
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="57"/>
+      <c r="F17" s="58"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="11" t="s">
-        <v>64</v>
-      </c>
-      <c r="B18" s="25"/>
-      <c r="C18" s="49"/>
+        <v>135</v>
+      </c>
+      <c r="B18" s="46">
+        <v>0.75</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>136</v>
+      </c>
       <c r="D18" s="49"/>
       <c r="E18" s="49"/>
-      <c r="F18" s="49"/>
+      <c r="F18" s="50"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B19" s="6"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
+      <c r="A19" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="B19" s="47"/>
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="58"/>
       <c r="H19" s="6"/>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A20" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="B20" s="46" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="48"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="50"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A21" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="21"/>
-      <c r="C21" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D21" s="48"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="48"/>
       <c r="H21" s="6"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A22" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="28">
-        <v>0</v>
-      </c>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
+      <c r="A22" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" s="21"/>
+      <c r="C22" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D22" s="60"/>
+      <c r="E22" s="60"/>
+      <c r="F22" s="60"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="B23" s="28">
-        <v>0</v>
-      </c>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
+        <v>67</v>
+      </c>
+      <c r="B23" s="26">
+        <v>0</v>
+      </c>
+      <c r="C23" s="61"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
+      <c r="F23" s="61"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="B24" s="28">
-        <v>0.25</v>
-      </c>
-      <c r="C24" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
+        <v>69</v>
+      </c>
+      <c r="B24" s="26">
+        <v>0</v>
+      </c>
+      <c r="C24" s="61"/>
+      <c r="D24" s="61"/>
+      <c r="E24" s="61"/>
+      <c r="F24" s="61"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="B25" s="28">
+        <v>71</v>
+      </c>
+      <c r="B25" s="26">
+        <v>0.25</v>
+      </c>
+      <c r="C25" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
+      <c r="F25" s="61"/>
+      <c r="H25" s="6"/>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A26" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="26">
         <v>0.1</v>
       </c>
-      <c r="C25" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="H25" s="6"/>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A26" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="B26" s="20">
-        <f>SUM(B24:B25)</f>
+      <c r="C26" s="61" t="s">
+        <v>119</v>
+      </c>
+      <c r="D26" s="61"/>
+      <c r="E26" s="61"/>
+      <c r="F26" s="61"/>
+      <c r="H26" s="6"/>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A27" s="19" t="s">
+        <v>70</v>
+      </c>
+      <c r="B27" s="40">
+        <f>SUM(B25:B26)</f>
         <v>0.35</v>
       </c>
-      <c r="C26" s="50"/>
-      <c r="D26" s="51"/>
-      <c r="E26" s="51"/>
-      <c r="F26" s="52"/>
-      <c r="H26" s="6"/>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A27" s="12"/>
-      <c r="B27" s="13"/>
+      <c r="C27" s="67"/>
+      <c r="D27" s="68"/>
+      <c r="E27" s="68"/>
+      <c r="F27" s="69"/>
+      <c r="H27" s="6"/>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A28" s="12"/>
+      <c r="B28" s="13"/>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="6"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D30" s="48"/>
-      <c r="E30" s="48"/>
-      <c r="F30" s="48"/>
+      <c r="C30" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D30" s="60"/>
+      <c r="E30" s="60"/>
+      <c r="F30" s="60"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B31" s="60">
-        <v>0</v>
-      </c>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
+        <v>48</v>
+      </c>
+      <c r="B31" s="44">
+        <v>0</v>
+      </c>
+      <c r="C31" s="61"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
+      <c r="F31" s="61"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="B32" s="60">
-        <v>0</v>
-      </c>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
+        <v>50</v>
+      </c>
+      <c r="B32" s="44">
+        <v>0</v>
+      </c>
+      <c r="C32" s="61"/>
+      <c r="D32" s="61"/>
+      <c r="E32" s="61"/>
+      <c r="F32" s="61"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
-        <v>52</v>
-      </c>
-      <c r="B33" s="60">
-        <v>0</v>
-      </c>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
+        <v>51</v>
+      </c>
+      <c r="B33" s="44">
+        <v>0</v>
+      </c>
+      <c r="C33" s="61"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
+      <c r="F33" s="61"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
-        <v>53</v>
-      </c>
-      <c r="B34" s="60">
-        <v>0</v>
-      </c>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
+        <v>52</v>
+      </c>
+      <c r="B34" s="44">
+        <v>0</v>
+      </c>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="61"/>
+      <c r="F34" s="61"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="B35" s="60">
-        <v>0.1</v>
-      </c>
-      <c r="C35" s="47"/>
-      <c r="D35" s="47"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="47"/>
+        <v>53</v>
+      </c>
+      <c r="B35" s="44">
+        <v>0</v>
+      </c>
+      <c r="C35" s="61"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
+      <c r="F35" s="61"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="B36" s="60">
-        <v>0</v>
-      </c>
-      <c r="C36" s="47"/>
-      <c r="D36" s="47"/>
-      <c r="E36" s="47"/>
-      <c r="F36" s="47"/>
+        <v>54</v>
+      </c>
+      <c r="B36" s="44">
+        <v>0</v>
+      </c>
+      <c r="C36" s="61"/>
+      <c r="D36" s="61"/>
+      <c r="E36" s="61"/>
+      <c r="F36" s="61"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="B37" s="60">
-        <v>0</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="47"/>
-      <c r="E37" s="47"/>
-      <c r="F37" s="47"/>
+        <v>73</v>
+      </c>
+      <c r="B37" s="41">
+        <v>0</v>
+      </c>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
+      <c r="F37" s="61"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="B38" s="29">
+        <v>74</v>
+      </c>
+      <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="47" t="s">
-        <v>138</v>
-      </c>
-      <c r="D38" s="47"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="47"/>
+      <c r="C38" s="61" t="s">
+        <v>137</v>
+      </c>
+      <c r="D38" s="61"/>
+      <c r="E38" s="61"/>
+      <c r="F38" s="61"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
-        <v>76</v>
-      </c>
-      <c r="B39" s="30">
+        <v>75</v>
+      </c>
+      <c r="B39" s="28">
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="47" t="s">
-        <v>146</v>
-      </c>
-      <c r="D39" s="47"/>
-      <c r="E39" s="47"/>
-      <c r="F39" s="47"/>
+      <c r="C39" s="61" t="s">
+        <v>143</v>
+      </c>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
+      <c r="F39" s="61"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1688,118 +1758,121 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D42" s="48"/>
-      <c r="E42" s="48"/>
-      <c r="F42" s="48"/>
+      <c r="C42" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="60"/>
+      <c r="E42" s="60"/>
+      <c r="F42" s="60"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="B43" s="31">
+        <v>80</v>
+      </c>
+      <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D43" s="47"/>
-      <c r="E43" s="47"/>
-      <c r="F43" s="47"/>
+      <c r="C43" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D43" s="61"/>
+      <c r="E43" s="61"/>
+      <c r="F43" s="61"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="B44" s="31">
+        <v>78</v>
+      </c>
+      <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="47" t="s">
-        <v>139</v>
-      </c>
-      <c r="D44" s="47"/>
-      <c r="E44" s="47"/>
-      <c r="F44" s="47"/>
+      <c r="C44" s="61" t="s">
+        <v>138</v>
+      </c>
+      <c r="D44" s="61"/>
+      <c r="E44" s="61"/>
+      <c r="F44" s="61"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
-        <v>80</v>
-      </c>
-      <c r="B45" s="31">
+        <v>79</v>
+      </c>
+      <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="47" t="s">
-        <v>140</v>
-      </c>
-      <c r="D45" s="47"/>
-      <c r="E45" s="47"/>
-      <c r="F45" s="47"/>
-    </row>
+      <c r="C45" s="61" t="s">
+        <v>139</v>
+      </c>
+      <c r="D45" s="61"/>
+      <c r="E45" s="61"/>
+      <c r="F45" s="61"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="48" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="48"/>
-      <c r="E48" s="48"/>
-      <c r="F48" s="48"/>
+      <c r="C48" s="60" t="s">
+        <v>121</v>
+      </c>
+      <c r="D48" s="60"/>
+      <c r="E48" s="60"/>
+      <c r="F48" s="60"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="B49" s="32">
+        <v>81</v>
+      </c>
+      <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="47" t="s">
-        <v>131</v>
-      </c>
-      <c r="D49" s="47"/>
-      <c r="E49" s="47"/>
-      <c r="F49" s="47"/>
+      <c r="C49" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="B50" s="32">
+        <v>82</v>
+      </c>
+      <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="47" t="s">
-        <v>132</v>
-      </c>
-      <c r="D50" s="47"/>
-      <c r="E50" s="47"/>
-      <c r="F50" s="47"/>
+      <c r="C50" s="61" t="s">
+        <v>131</v>
+      </c>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="31">
+        <v>93</v>
+      </c>
+      <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="47" t="s">
-        <v>133</v>
-      </c>
-      <c r="D51" s="47"/>
-      <c r="E51" s="47"/>
-      <c r="F51" s="47"/>
+      <c r="C51" s="61" t="s">
+        <v>132</v>
+      </c>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
     </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3"/>
     <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54" s="16" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B54" s="17"/>
       <c r="C54" s="17"/>
@@ -1817,9 +1890,9 @@
     </row>
     <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55" s="9" t="s">
-        <v>67</v>
-      </c>
-      <c r="B55" s="33">
+        <v>66</v>
+      </c>
+      <c r="B55" s="43">
         <v>2019</v>
       </c>
       <c r="C55" s="9">
@@ -1867,343 +1940,352 @@
         <v>2030</v>
       </c>
       <c r="N55" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56" s="18" t="s">
-        <v>100</v>
-      </c>
-      <c r="B56" s="34"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="34">
-        <v>0.79125754807018989</v>
-      </c>
-      <c r="E56" s="34">
-        <v>0.93465812323436248</v>
-      </c>
-      <c r="F56" s="34">
-        <v>0.95354715354331754</v>
-      </c>
-      <c r="G56" s="34">
-        <v>0.96176663656636663</v>
-      </c>
-      <c r="H56" s="34">
-        <v>0.96998611958941583</v>
-      </c>
-      <c r="I56" s="34">
-        <v>0.96998611958941583</v>
-      </c>
-      <c r="J56" s="34">
-        <v>0.96998611958941583</v>
-      </c>
-      <c r="K56" s="34">
-        <v>0.96998611958941583</v>
-      </c>
-      <c r="L56" s="34">
-        <v>0.96998611958941583</v>
-      </c>
-      <c r="M56" s="34"/>
-      <c r="N56" s="39"/>
+        <v>99</v>
+      </c>
+      <c r="B56" s="31">
+        <v>1</v>
+      </c>
+      <c r="C56" s="31">
+        <v>1</v>
+      </c>
+      <c r="D56" s="31">
+        <v>1</v>
+      </c>
+      <c r="E56" s="31">
+        <v>1</v>
+      </c>
+      <c r="F56" s="31">
+        <v>1</v>
+      </c>
+      <c r="G56" s="31">
+        <v>1</v>
+      </c>
+      <c r="H56" s="31">
+        <v>1</v>
+      </c>
+      <c r="I56" s="31">
+        <v>1</v>
+      </c>
+      <c r="J56" s="31">
+        <v>1</v>
+      </c>
+      <c r="K56" s="31">
+        <v>1</v>
+      </c>
+      <c r="L56" s="31">
+        <v>1</v>
+      </c>
+      <c r="M56" s="31">
+        <v>1</v>
+      </c>
+      <c r="N56" s="36"/>
     </row>
     <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61">
+        <v>104</v>
+      </c>
+      <c r="B57" s="32"/>
+      <c r="C57" s="32"/>
+      <c r="D57" s="32">
         <v>4</v>
       </c>
-      <c r="E57" s="61">
-        <f>D57</f>
+      <c r="E57" s="32">
         <v>4</v>
       </c>
-      <c r="F57" s="61">
-        <f t="shared" ref="F57:L57" si="1">E57</f>
+      <c r="F57" s="32">
         <v>4</v>
       </c>
-      <c r="G57" s="61">
-        <f t="shared" si="1"/>
+      <c r="G57" s="32">
         <v>4</v>
       </c>
-      <c r="H57" s="61">
-        <f t="shared" si="1"/>
+      <c r="H57" s="32">
         <v>4</v>
       </c>
-      <c r="I57" s="61">
-        <f t="shared" si="1"/>
+      <c r="I57" s="32">
         <v>4</v>
       </c>
-      <c r="J57" s="61">
-        <f t="shared" si="1"/>
+      <c r="J57" s="32">
         <v>4</v>
       </c>
-      <c r="K57" s="61">
-        <f t="shared" si="1"/>
+      <c r="K57" s="32">
         <v>4</v>
       </c>
-      <c r="L57" s="61">
-        <f t="shared" si="1"/>
+      <c r="L57" s="32">
         <v>4</v>
       </c>
-      <c r="M57" s="61"/>
-      <c r="N57" s="40" t="s">
-        <v>104</v>
+      <c r="M57" s="32">
+        <f>L57</f>
+        <v>4</v>
+      </c>
+      <c r="N57" s="37" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58" s="18" t="s">
-        <v>101</v>
-      </c>
-      <c r="B58" s="34">
-        <v>0</v>
-      </c>
-      <c r="C58" s="34">
-        <v>0</v>
-      </c>
-      <c r="D58" s="34">
+        <v>100</v>
+      </c>
+      <c r="B58" s="31">
+        <v>0</v>
+      </c>
+      <c r="C58" s="31">
+        <v>0</v>
+      </c>
+      <c r="D58" s="31">
         <v>0.25</v>
       </c>
-      <c r="E58" s="34">
+      <c r="E58" s="31">
         <v>0.25</v>
       </c>
-      <c r="F58" s="34">
+      <c r="F58" s="31">
         <v>0.25</v>
       </c>
-      <c r="G58" s="34">
+      <c r="G58" s="31">
         <v>0.25</v>
       </c>
-      <c r="H58" s="34">
+      <c r="H58" s="31">
         <v>0.25</v>
       </c>
-      <c r="I58" s="34">
+      <c r="I58" s="31">
         <v>0.25</v>
       </c>
-      <c r="J58" s="34">
+      <c r="J58" s="31">
         <v>0.25</v>
       </c>
-      <c r="K58" s="34">
+      <c r="K58" s="31">
         <v>0.25</v>
       </c>
-      <c r="L58" s="34">
+      <c r="L58" s="31">
         <v>0.25</v>
       </c>
-      <c r="M58" s="34"/>
-      <c r="N58" s="40" t="s">
-        <v>142</v>
+      <c r="M58" s="31">
+        <f>L58</f>
+        <v>0.25</v>
+      </c>
+      <c r="N58" s="37" t="s">
+        <v>141</v>
       </c>
     </row>
     <row r="59" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="18" t="s">
-        <v>99</v>
-      </c>
-      <c r="B59" s="34"/>
-      <c r="C59" s="34"/>
-      <c r="D59" s="34"/>
-      <c r="E59" s="34"/>
-      <c r="F59" s="34"/>
-      <c r="G59" s="34"/>
-      <c r="H59" s="34"/>
-      <c r="I59" s="34"/>
-      <c r="J59" s="34"/>
-      <c r="K59" s="34"/>
-      <c r="L59" s="34"/>
-      <c r="M59" s="34"/>
-      <c r="N59" s="40" t="s">
-        <v>120</v>
+        <v>98</v>
+      </c>
+      <c r="B59" s="31"/>
+      <c r="C59" s="31"/>
+      <c r="D59" s="31"/>
+      <c r="E59" s="31"/>
+      <c r="F59" s="31"/>
+      <c r="G59" s="31"/>
+      <c r="H59" s="31"/>
+      <c r="I59" s="31"/>
+      <c r="J59" s="31"/>
+      <c r="K59" s="31"/>
+      <c r="L59" s="31"/>
+      <c r="M59" s="31"/>
+      <c r="N59" s="37" t="s">
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="B60" s="34"/>
-      <c r="C60" s="34"/>
-      <c r="D60" s="34">
+        <v>76</v>
+      </c>
+      <c r="B60" s="25"/>
+      <c r="C60" s="25"/>
+      <c r="D60" s="25">
         <v>0.35</v>
       </c>
-      <c r="E60" s="34">
+      <c r="E60" s="25">
         <v>0.35</v>
       </c>
-      <c r="F60" s="34">
+      <c r="F60" s="25">
         <v>0.35</v>
       </c>
-      <c r="G60" s="34">
+      <c r="G60" s="25">
         <v>0.35</v>
       </c>
-      <c r="H60" s="34">
+      <c r="H60" s="25">
         <v>0.35</v>
       </c>
-      <c r="I60" s="34">
+      <c r="I60" s="25">
         <v>0.35</v>
       </c>
-      <c r="J60" s="34">
+      <c r="J60" s="25">
         <v>0.35</v>
       </c>
-      <c r="K60" s="34">
+      <c r="K60" s="25">
         <v>0.35</v>
       </c>
-      <c r="L60" s="34">
+      <c r="L60" s="25">
         <v>0.35</v>
       </c>
-      <c r="M60" s="34"/>
-      <c r="N60" s="40"/>
+      <c r="M60" s="25">
+        <f>L60</f>
+        <v>0.35</v>
+      </c>
+      <c r="N60" s="37" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="B61" s="35"/>
-      <c r="C61" s="35"/>
-      <c r="D61" s="35"/>
-      <c r="E61" s="35"/>
-      <c r="F61" s="35"/>
-      <c r="G61" s="35"/>
-      <c r="H61" s="35"/>
-      <c r="I61" s="35"/>
-      <c r="J61" s="35"/>
-      <c r="K61" s="35"/>
-      <c r="L61" s="35"/>
-      <c r="M61" s="35"/>
-      <c r="N61" s="40" t="s">
-        <v>111</v>
+        <v>122</v>
+      </c>
+      <c r="B61" s="39"/>
+      <c r="C61" s="39"/>
+      <c r="D61" s="39"/>
+      <c r="E61" s="39"/>
+      <c r="F61" s="39"/>
+      <c r="G61" s="39"/>
+      <c r="H61" s="39"/>
+      <c r="I61" s="39"/>
+      <c r="J61" s="39"/>
+      <c r="K61" s="39"/>
+      <c r="L61" s="39"/>
+      <c r="M61" s="39"/>
+      <c r="N61" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62" s="18" t="s">
-        <v>124</v>
-      </c>
-      <c r="B62" s="35"/>
-      <c r="C62" s="35"/>
-      <c r="D62" s="35"/>
-      <c r="E62" s="35"/>
-      <c r="F62" s="35"/>
-      <c r="G62" s="35"/>
-      <c r="H62" s="35"/>
-      <c r="I62" s="35"/>
-      <c r="J62" s="35"/>
-      <c r="K62" s="35"/>
-      <c r="L62" s="35"/>
-      <c r="M62" s="35"/>
-      <c r="N62" s="40" t="s">
-        <v>111</v>
+        <v>123</v>
+      </c>
+      <c r="B62" s="39"/>
+      <c r="C62" s="39"/>
+      <c r="D62" s="39"/>
+      <c r="E62" s="39"/>
+      <c r="F62" s="39"/>
+      <c r="G62" s="39"/>
+      <c r="H62" s="39"/>
+      <c r="I62" s="39"/>
+      <c r="J62" s="39"/>
+      <c r="K62" s="39"/>
+      <c r="L62" s="39"/>
+      <c r="M62" s="39"/>
+      <c r="N62" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63" s="18" t="s">
-        <v>127</v>
-      </c>
-      <c r="B63" s="35">
+        <v>126</v>
+      </c>
+      <c r="B63" s="39">
         <v>-0.25</v>
       </c>
-      <c r="C63" s="35">
+      <c r="C63" s="39">
         <v>-2.0499999999999998</v>
       </c>
-      <c r="D63" s="35"/>
-      <c r="E63" s="35"/>
-      <c r="F63" s="35"/>
-      <c r="G63" s="35"/>
-      <c r="H63" s="35"/>
-      <c r="I63" s="35"/>
-      <c r="J63" s="35"/>
-      <c r="K63" s="35"/>
-      <c r="L63" s="35"/>
-      <c r="M63" s="35"/>
-      <c r="N63" s="40" t="s">
-        <v>111</v>
+      <c r="D63" s="39"/>
+      <c r="E63" s="39"/>
+      <c r="F63" s="39"/>
+      <c r="G63" s="39"/>
+      <c r="H63" s="39"/>
+      <c r="I63" s="39"/>
+      <c r="J63" s="39"/>
+      <c r="K63" s="39"/>
+      <c r="L63" s="39"/>
+      <c r="M63" s="39"/>
+      <c r="N63" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="1:14" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A64" s="18" t="s">
-        <v>126</v>
-      </c>
-      <c r="B64" s="35"/>
-      <c r="C64" s="35"/>
-      <c r="D64" s="35"/>
-      <c r="E64" s="35"/>
-      <c r="F64" s="35"/>
-      <c r="G64" s="35"/>
-      <c r="H64" s="35"/>
-      <c r="I64" s="35"/>
-      <c r="J64" s="35"/>
-      <c r="K64" s="35"/>
-      <c r="L64" s="35"/>
-      <c r="M64" s="35"/>
-      <c r="N64" s="40" t="s">
-        <v>111</v>
+        <v>125</v>
+      </c>
+      <c r="B64" s="39"/>
+      <c r="C64" s="39"/>
+      <c r="D64" s="39"/>
+      <c r="E64" s="39"/>
+      <c r="F64" s="39"/>
+      <c r="G64" s="39"/>
+      <c r="H64" s="39"/>
+      <c r="I64" s="39"/>
+      <c r="J64" s="39"/>
+      <c r="K64" s="39"/>
+      <c r="L64" s="39"/>
+      <c r="M64" s="39"/>
+      <c r="N64" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="B65" s="35"/>
-      <c r="C65" s="35"/>
-      <c r="D65" s="35"/>
-      <c r="E65" s="35"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="35"/>
-      <c r="H65" s="35"/>
-      <c r="I65" s="35"/>
-      <c r="J65" s="35"/>
-      <c r="K65" s="35"/>
-      <c r="L65" s="35"/>
-      <c r="M65" s="35"/>
-      <c r="N65" s="40" t="s">
-        <v>111</v>
+        <v>142</v>
+      </c>
+      <c r="B65" s="39"/>
+      <c r="C65" s="39"/>
+      <c r="D65" s="39"/>
+      <c r="E65" s="39"/>
+      <c r="F65" s="39"/>
+      <c r="G65" s="39"/>
+      <c r="H65" s="39"/>
+      <c r="I65" s="39"/>
+      <c r="J65" s="39"/>
+      <c r="K65" s="39"/>
+      <c r="L65" s="39"/>
+      <c r="M65" s="39"/>
+      <c r="N65" s="37" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B66" s="20">
         <f>B63+B64+B65</f>
         <v>-0.25</v>
       </c>
       <c r="C66" s="20">
-        <f t="shared" ref="C66:M66" si="2">C63+C64+C65</f>
+        <f t="shared" ref="C66:M66" si="1">C63+C64+C65</f>
         <v>-2.0499999999999998</v>
       </c>
       <c r="D66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="E66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="F66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="G66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="H66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="I66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="J66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="K66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="L66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="M66" s="20">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="N66" s="20"/>
@@ -2237,7 +2319,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="14" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B69" s="15"/>
       <c r="C69" s="15"/>
@@ -2255,7 +2337,7 @@
     </row>
     <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B70" s="9">
         <v>2019</v>
@@ -2294,161 +2376,161 @@
         <v>2030</v>
       </c>
       <c r="N70" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A71" s="36" t="s">
-        <v>106</v>
-      </c>
-      <c r="B71" s="37"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="37"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="37"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="37"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="37"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="37"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="40" t="s">
-        <v>147</v>
+      <c r="A71" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B71" s="34"/>
+      <c r="C71" s="34"/>
+      <c r="D71" s="34"/>
+      <c r="E71" s="34"/>
+      <c r="F71" s="34"/>
+      <c r="G71" s="34"/>
+      <c r="H71" s="34"/>
+      <c r="I71" s="34"/>
+      <c r="J71" s="34"/>
+      <c r="K71" s="34"/>
+      <c r="L71" s="34"/>
+      <c r="M71" s="34"/>
+      <c r="N71" s="37" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A72" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B72" s="37"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="37"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="37"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="37"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="37"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="37"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="40" t="s">
-        <v>147</v>
+      <c r="A72" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="B72" s="34"/>
+      <c r="C72" s="34"/>
+      <c r="D72" s="34"/>
+      <c r="E72" s="34"/>
+      <c r="F72" s="34"/>
+      <c r="G72" s="34"/>
+      <c r="H72" s="34"/>
+      <c r="I72" s="34"/>
+      <c r="J72" s="34"/>
+      <c r="K72" s="34"/>
+      <c r="L72" s="34"/>
+      <c r="M72" s="34"/>
+      <c r="N72" s="37" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A73" s="36" t="s">
+      <c r="A73" s="33" t="s">
+        <v>107</v>
+      </c>
+      <c r="B73" s="34"/>
+      <c r="C73" s="34"/>
+      <c r="D73" s="34"/>
+      <c r="E73" s="34"/>
+      <c r="F73" s="34"/>
+      <c r="G73" s="34"/>
+      <c r="H73" s="34"/>
+      <c r="I73" s="34"/>
+      <c r="J73" s="34"/>
+      <c r="K73" s="34"/>
+      <c r="L73" s="34"/>
+      <c r="M73" s="34"/>
+      <c r="N73" s="37" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A74" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B73" s="37"/>
-      <c r="C73" s="37"/>
-      <c r="D73" s="37"/>
-      <c r="E73" s="37"/>
-      <c r="F73" s="37"/>
-      <c r="G73" s="37"/>
-      <c r="H73" s="37"/>
-      <c r="I73" s="37"/>
-      <c r="J73" s="37"/>
-      <c r="K73" s="37"/>
-      <c r="L73" s="37"/>
-      <c r="M73" s="37"/>
-      <c r="N73" s="40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A74" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B74" s="37"/>
-      <c r="C74" s="37"/>
-      <c r="D74" s="37"/>
-      <c r="E74" s="37"/>
-      <c r="F74" s="37"/>
-      <c r="G74" s="37"/>
-      <c r="H74" s="37"/>
-      <c r="I74" s="37"/>
-      <c r="J74" s="37"/>
-      <c r="K74" s="37"/>
-      <c r="L74" s="37"/>
-      <c r="M74" s="37"/>
-      <c r="N74" s="40" t="s">
-        <v>147</v>
+      <c r="B74" s="34"/>
+      <c r="C74" s="34"/>
+      <c r="D74" s="34"/>
+      <c r="E74" s="34"/>
+      <c r="F74" s="34"/>
+      <c r="G74" s="34"/>
+      <c r="H74" s="34"/>
+      <c r="I74" s="34"/>
+      <c r="J74" s="34"/>
+      <c r="K74" s="34"/>
+      <c r="L74" s="34"/>
+      <c r="M74" s="34"/>
+      <c r="N74" s="37" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="19" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B75" s="24">
         <f>SUM(B71:B74)</f>
         <v>0</v>
       </c>
       <c r="C75" s="24">
-        <f t="shared" ref="C75:M75" si="3">SUM(C71:C74)</f>
+        <f t="shared" ref="C75:M75" si="2">SUM(C71:C74)</f>
         <v>0</v>
       </c>
       <c r="D75" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="E75" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F75" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="G75" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="H75" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="I75" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="J75" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="K75" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L75" s="24">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="M75" s="24">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="N75" s="41"/>
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="N75" s="38"/>
     </row>
     <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" s="37"/>
-      <c r="C76" s="37"/>
-      <c r="D76" s="37"/>
-      <c r="E76" s="37"/>
-      <c r="F76" s="37"/>
-      <c r="G76" s="37"/>
-      <c r="H76" s="37"/>
-      <c r="I76" s="37"/>
-      <c r="J76" s="37"/>
-      <c r="K76" s="37"/>
-      <c r="L76" s="37"/>
-      <c r="M76" s="37"/>
-      <c r="N76" s="40" t="s">
-        <v>121</v>
+        <v>102</v>
+      </c>
+      <c r="B76" s="34"/>
+      <c r="C76" s="34"/>
+      <c r="D76" s="34"/>
+      <c r="E76" s="34"/>
+      <c r="F76" s="34"/>
+      <c r="G76" s="34"/>
+      <c r="H76" s="34"/>
+      <c r="I76" s="34"/>
+      <c r="J76" s="34"/>
+      <c r="K76" s="34"/>
+      <c r="L76" s="34"/>
+      <c r="M76" s="34"/>
+      <c r="N76" s="37" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="77" spans="1:15" x14ac:dyDescent="0.3">
@@ -2466,7 +2548,7 @@
     </row>
     <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="14" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B78" s="15"/>
       <c r="C78" s="15"/>
@@ -2484,7 +2566,7 @@
     </row>
     <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B79" s="9">
         <v>2019</v>
@@ -2523,266 +2605,266 @@
         <v>2030</v>
       </c>
       <c r="N79" s="9" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="80" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A80" s="36" t="s">
+      <c r="A80" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="34"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="35"/>
+      <c r="I80" s="35"/>
+      <c r="J80" s="35"/>
+      <c r="K80" s="35"/>
+      <c r="L80" s="35"/>
+      <c r="M80" s="35"/>
+      <c r="N80" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="O80" s="6"/>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A81" s="33" t="s">
         <v>106</v>
       </c>
-      <c r="B80" s="37"/>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
-      <c r="G80" s="38"/>
-      <c r="H80" s="38"/>
-      <c r="I80" s="38"/>
-      <c r="J80" s="38"/>
-      <c r="K80" s="38"/>
-      <c r="L80" s="38"/>
-      <c r="M80" s="38"/>
-      <c r="N80" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="O80" s="6"/>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A81" s="36" t="s">
+      <c r="B81" s="34"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="35"/>
+      <c r="I81" s="35"/>
+      <c r="J81" s="35"/>
+      <c r="K81" s="35"/>
+      <c r="L81" s="35"/>
+      <c r="M81" s="35"/>
+      <c r="N81" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="O81" s="6"/>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A82" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="B81" s="37"/>
-      <c r="C81" s="38"/>
-      <c r="D81" s="38"/>
-      <c r="E81" s="38"/>
-      <c r="F81" s="38"/>
-      <c r="G81" s="38"/>
-      <c r="H81" s="38"/>
-      <c r="I81" s="38"/>
-      <c r="J81" s="38"/>
-      <c r="K81" s="38"/>
-      <c r="L81" s="38"/>
-      <c r="M81" s="38"/>
-      <c r="N81" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="O81" s="6"/>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A82" s="36" t="s">
+      <c r="B82" s="34"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
+      <c r="H82" s="35"/>
+      <c r="I82" s="35"/>
+      <c r="J82" s="35"/>
+      <c r="K82" s="35"/>
+      <c r="L82" s="35"/>
+      <c r="M82" s="35"/>
+      <c r="N82" s="37" t="s">
+        <v>110</v>
+      </c>
+      <c r="O82" s="6"/>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="A83" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="B82" s="37"/>
-      <c r="C82" s="38"/>
-      <c r="D82" s="38"/>
-      <c r="E82" s="38"/>
-      <c r="F82" s="38"/>
-      <c r="G82" s="38"/>
-      <c r="H82" s="38"/>
-      <c r="I82" s="38"/>
-      <c r="J82" s="38"/>
-      <c r="K82" s="38"/>
-      <c r="L82" s="38"/>
-      <c r="M82" s="38"/>
-      <c r="N82" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="O82" s="6"/>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A83" s="36" t="s">
-        <v>109</v>
-      </c>
-      <c r="B83" s="37"/>
-      <c r="C83" s="38"/>
-      <c r="D83" s="38"/>
-      <c r="E83" s="38"/>
-      <c r="F83" s="38"/>
-      <c r="G83" s="38"/>
-      <c r="H83" s="38"/>
-      <c r="I83" s="38"/>
-      <c r="J83" s="38"/>
-      <c r="K83" s="38"/>
-      <c r="L83" s="38"/>
-      <c r="M83" s="38"/>
-      <c r="N83" s="40" t="s">
-        <v>111</v>
+      <c r="B83" s="34"/>
+      <c r="C83" s="35"/>
+      <c r="D83" s="35"/>
+      <c r="E83" s="35"/>
+      <c r="F83" s="35"/>
+      <c r="G83" s="35"/>
+      <c r="H83" s="35"/>
+      <c r="I83" s="35"/>
+      <c r="J83" s="35"/>
+      <c r="K83" s="35"/>
+      <c r="L83" s="35"/>
+      <c r="M83" s="35"/>
+      <c r="N83" s="37" t="s">
+        <v>110</v>
       </c>
       <c r="O83" s="6"/>
     </row>
     <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="19" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B84" s="24">
         <f>SUM(B80:B83)</f>
         <v>0</v>
       </c>
       <c r="C84" s="24">
-        <f t="shared" ref="C84:M84" si="4">SUM(C80:C83)</f>
+        <f t="shared" ref="C84:M84" si="3">SUM(C80:C83)</f>
         <v>0</v>
       </c>
       <c r="D84" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="E84" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="F84" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="G84" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="H84" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="I84" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="J84" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="K84" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="L84" s="24">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
       <c r="M84" s="24">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="N84" s="41"/>
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="N84" s="38"/>
       <c r="O84" s="6"/>
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="37"/>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="37"/>
-      <c r="I85" s="37"/>
-      <c r="J85" s="37"/>
-      <c r="K85" s="37"/>
-      <c r="L85" s="37"/>
-      <c r="M85" s="37"/>
-      <c r="N85" s="40" t="s">
-        <v>148</v>
+        <v>87</v>
+      </c>
+      <c r="B85" s="34"/>
+      <c r="C85" s="34"/>
+      <c r="D85" s="34"/>
+      <c r="E85" s="34"/>
+      <c r="F85" s="34"/>
+      <c r="G85" s="34"/>
+      <c r="H85" s="34"/>
+      <c r="I85" s="34"/>
+      <c r="J85" s="34"/>
+      <c r="K85" s="34"/>
+      <c r="L85" s="34"/>
+      <c r="M85" s="34"/>
+      <c r="N85" s="37" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="11" t="s">
-        <v>89</v>
-      </c>
-      <c r="B86" s="37"/>
-      <c r="C86" s="37"/>
-      <c r="D86" s="37"/>
-      <c r="E86" s="37"/>
-      <c r="F86" s="37"/>
-      <c r="G86" s="37"/>
-      <c r="H86" s="37"/>
-      <c r="I86" s="37"/>
-      <c r="J86" s="37"/>
-      <c r="K86" s="37"/>
-      <c r="L86" s="37"/>
-      <c r="M86" s="37"/>
-      <c r="N86" s="40" t="s">
-        <v>149</v>
+        <v>88</v>
+      </c>
+      <c r="B86" s="34"/>
+      <c r="C86" s="34"/>
+      <c r="D86" s="34"/>
+      <c r="E86" s="34"/>
+      <c r="F86" s="34"/>
+      <c r="G86" s="34"/>
+      <c r="H86" s="34"/>
+      <c r="I86" s="34"/>
+      <c r="J86" s="34"/>
+      <c r="K86" s="34"/>
+      <c r="L86" s="34"/>
+      <c r="M86" s="34"/>
+      <c r="N86" s="37" t="s">
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="B87" s="37"/>
-      <c r="C87" s="37"/>
-      <c r="D87" s="37"/>
-      <c r="E87" s="37"/>
-      <c r="F87" s="37"/>
-      <c r="G87" s="37"/>
-      <c r="H87" s="37"/>
-      <c r="I87" s="37"/>
-      <c r="J87" s="37"/>
-      <c r="K87" s="37"/>
-      <c r="L87" s="37"/>
-      <c r="M87" s="37"/>
-      <c r="N87" s="40" t="s">
-        <v>150</v>
+        <v>89</v>
+      </c>
+      <c r="B87" s="34"/>
+      <c r="C87" s="34"/>
+      <c r="D87" s="34"/>
+      <c r="E87" s="34"/>
+      <c r="F87" s="34"/>
+      <c r="G87" s="34"/>
+      <c r="H87" s="34"/>
+      <c r="I87" s="34"/>
+      <c r="J87" s="34"/>
+      <c r="K87" s="34"/>
+      <c r="L87" s="34"/>
+      <c r="M87" s="34"/>
+      <c r="N87" s="37" t="s">
+        <v>147</v>
       </c>
     </row>
     <row r="88" spans="1:15" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A88" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="B88" s="37"/>
-      <c r="C88" s="37"/>
-      <c r="D88" s="37"/>
-      <c r="E88" s="37"/>
-      <c r="F88" s="37"/>
-      <c r="G88" s="37"/>
-      <c r="H88" s="37"/>
-      <c r="I88" s="37"/>
-      <c r="J88" s="37"/>
-      <c r="K88" s="37"/>
-      <c r="L88" s="37"/>
-      <c r="M88" s="37"/>
-      <c r="N88" s="40" t="s">
-        <v>151</v>
+        <v>90</v>
+      </c>
+      <c r="B88" s="34"/>
+      <c r="C88" s="34"/>
+      <c r="D88" s="34"/>
+      <c r="E88" s="34"/>
+      <c r="F88" s="34"/>
+      <c r="G88" s="34"/>
+      <c r="H88" s="34"/>
+      <c r="I88" s="34"/>
+      <c r="J88" s="34"/>
+      <c r="K88" s="34"/>
+      <c r="L88" s="34"/>
+      <c r="M88" s="34"/>
+      <c r="N88" s="37" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="B89" s="37"/>
-      <c r="C89" s="37"/>
-      <c r="D89" s="37"/>
-      <c r="E89" s="37"/>
-      <c r="F89" s="37"/>
-      <c r="G89" s="37"/>
-      <c r="H89" s="37"/>
-      <c r="I89" s="37"/>
-      <c r="J89" s="37"/>
-      <c r="K89" s="37"/>
-      <c r="L89" s="37"/>
-      <c r="M89" s="37"/>
-      <c r="N89" s="40" t="s">
-        <v>152</v>
+        <v>91</v>
+      </c>
+      <c r="B89" s="34"/>
+      <c r="C89" s="34"/>
+      <c r="D89" s="34"/>
+      <c r="E89" s="34"/>
+      <c r="F89" s="34"/>
+      <c r="G89" s="34"/>
+      <c r="H89" s="34"/>
+      <c r="I89" s="34"/>
+      <c r="J89" s="34"/>
+      <c r="K89" s="34"/>
+      <c r="L89" s="34"/>
+      <c r="M89" s="34"/>
+      <c r="N89" s="37" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="B90" s="37"/>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="37"/>
-      <c r="I90" s="37"/>
-      <c r="J90" s="37"/>
-      <c r="K90" s="37"/>
-      <c r="L90" s="37"/>
-      <c r="M90" s="37"/>
-      <c r="N90" s="40" t="s">
-        <v>153</v>
+        <v>92</v>
+      </c>
+      <c r="B90" s="34"/>
+      <c r="C90" s="34"/>
+      <c r="D90" s="34"/>
+      <c r="E90" s="34"/>
+      <c r="F90" s="34"/>
+      <c r="G90" s="34"/>
+      <c r="H90" s="34"/>
+      <c r="I90" s="34"/>
+      <c r="J90" s="34"/>
+      <c r="K90" s="34"/>
+      <c r="L90" s="34"/>
+      <c r="M90" s="34"/>
+      <c r="N90" s="37" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="91" spans="1:15" x14ac:dyDescent="0.3">
@@ -2798,27 +2880,36 @@
       <c r="K91" s="6"/>
       <c r="L91" s="6"/>
     </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.3"/>
     <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" s="22"/>
     </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3"/>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
-  <mergeCells count="46">
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
+  <mergeCells count="47">
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="C44:F44"/>
+    <mergeCell ref="C48:F48"/>
+    <mergeCell ref="C31:F31"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C25:F25"/>
+    <mergeCell ref="C26:F26"/>
+    <mergeCell ref="C27:F27"/>
+    <mergeCell ref="C30:F30"/>
     <mergeCell ref="C49:F49"/>
     <mergeCell ref="C50:F50"/>
     <mergeCell ref="C51:F51"/>
@@ -2833,58 +2924,93 @@
     <mergeCell ref="C37:F37"/>
     <mergeCell ref="C38:F38"/>
     <mergeCell ref="C39:F39"/>
-    <mergeCell ref="J4:L4"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="C44:F44"/>
-    <mergeCell ref="C48:F48"/>
-    <mergeCell ref="C31:F31"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C21:F21"/>
-    <mergeCell ref="C22:F22"/>
-    <mergeCell ref="C23:F23"/>
-    <mergeCell ref="C24:F24"/>
-    <mergeCell ref="C25:F25"/>
-    <mergeCell ref="C26:F26"/>
-    <mergeCell ref="C30:F30"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
-  <dataValidations count="4">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B9 B11" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
+  <conditionalFormatting sqref="B25:B26">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>B6="Brand"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B26">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>B6="Brand"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B60:M60">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>$B$9="Internal"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <dataValidations count="6">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{FB8FC8F8-FB3B-423C-85F6-7C30F382E001}">
       <formula1>1</formula1>
       <formula2>12</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{550EAF96-AF9F-426A-808B-E6F97D9602B8}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B13" xr:uid="{550EAF96-AF9F-426A-808B-E6F97D9602B8}">
       <formula1>2018</formula1>
       <formula2>2030</formula2>
     </dataValidation>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B10" xr:uid="{5AAFD038-1167-4616-998D-14EBD06205E4}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B11" xr:uid="{5AAFD038-1167-4616-998D-14EBD06205E4}">
       <formula1>2018</formula1>
       <formula2>2040</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B17" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
+    <dataValidation type="decimal" showInputMessage="1" showErrorMessage="1" sqref="B18" xr:uid="{8C8D0CAA-DF42-408A-9299-91C6654C1D93}">
       <formula1>0</formula1>
       <formula2>1</formula2>
+    </dataValidation>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="B12" xr:uid="{BFDA9F99-B286-4061-AC1B-A4D018A25FDB}">
+      <formula1>1</formula1>
+      <formula2>12</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" operator="greaterThanOrEqual" showInputMessage="1" showErrorMessage="1" sqref="B43:B45" xr:uid="{C14FE8E3-FE0A-451E-964F-AACBAA117C4A}">
+      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{833B37AE-370B-4D62-8109-2426A1766273}">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="4">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{833B37AE-370B-4D62-8109-2426A1766273}">
           <x14:formula1>
-            <xm:f>'Selection Control'!$B$1:$B$3</xm:f>
+            <xm:f>'Selection Control'!$B$1:$B$2</xm:f>
           </x14:formula1>
           <xm:sqref>B6</xm:sqref>
         </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{8719C8E2-59E4-4743-AD55-4A98FF2B2435}">
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{8719C8E2-59E4-4743-AD55-4A98FF2B2435}">
           <x14:formula1>
-            <xm:f>'Selection Control'!$C$1:$C$4</xm:f>
+            <xm:f>'Selection Control'!$E$1:$E$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B9</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FFE5E844-A3B4-4476-BA45-3907687B65BD}">
+          <x14:formula1>
+            <xm:f>'Selection Control'!$C$1:$C$3</xm:f>
           </x14:formula1>
           <xm:sqref>B7</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{7492C9F1-B2C7-4DE6-B1C7-FB2F9CF9DDE0}">
+          <x14:formula1>
+            <xm:f>'Selection Control'!$F$1:$F$2</xm:f>
+          </x14:formula1>
+          <xm:sqref>B20</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -2907,7 +3033,7 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="23" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2945,7 +3071,7 @@
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -2983,7 +3109,7 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -3021,7 +3147,7 @@
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -3059,7 +3185,7 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3097,7 +3223,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -3135,7 +3261,7 @@
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3178,10 +3304,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6A3E2E1D-1DA7-43EC-A894-786AF7D64AE1}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3191,21 +3317,27 @@
     <col min="3" max="3" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C1" t="s">
         <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s">
+        <v>155</v>
+      </c>
+      <c r="F1" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -3216,35 +3348,35 @@
         <v>7</v>
       </c>
       <c r="D2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>156</v>
+      </c>
+      <c r="F2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
       <c r="C3" t="s">
         <v>8</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
       <c r="D4" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -3269,182 +3401,182 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>

--- a/Model Inputs ARFORMOTEROL.xlsx
+++ b/Model Inputs ARFORMOTEROL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D333E3B0-5304-4609-A47E-3EA5E3F973AA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39CDF6-D518-4F93-8D03-16AD1A42A625}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -837,29 +837,27 @@
       <alignment horizontal="right"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -873,43 +871,45 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="F64" sqref="F64"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B36" sqref="B36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1311,17 +1311,17 @@
         <v>46</v>
       </c>
       <c r="B4" s="21"/>
-      <c r="C4" s="60" t="s">
+      <c r="C4" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D4" s="60"/>
-      <c r="E4" s="60"/>
-      <c r="F4" s="60"/>
-      <c r="J4" s="62" t="s">
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="J4" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="K4" s="62"/>
-      <c r="L4" s="62"/>
+      <c r="K4" s="48"/>
+      <c r="L4" s="48"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" s="18" t="s">
@@ -1330,15 +1330,15 @@
       <c r="B5" s="47" t="s">
         <v>161</v>
       </c>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
-      <c r="E5" s="61"/>
-      <c r="F5" s="61"/>
-      <c r="J5" s="55" t="s">
+      <c r="C5" s="53"/>
+      <c r="D5" s="53"/>
+      <c r="E5" s="53"/>
+      <c r="F5" s="53"/>
+      <c r="J5" s="69" t="s">
         <v>56</v>
       </c>
-      <c r="K5" s="55"/>
-      <c r="L5" s="55"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" s="18" t="s">
@@ -1347,15 +1347,15 @@
       <c r="B6" s="45" t="s">
         <v>153</v>
       </c>
-      <c r="C6" s="59"/>
-      <c r="D6" s="59"/>
-      <c r="E6" s="59"/>
-      <c r="F6" s="59"/>
-      <c r="J6" s="66" t="s">
+      <c r="C6" s="64"/>
+      <c r="D6" s="64"/>
+      <c r="E6" s="64"/>
+      <c r="F6" s="64"/>
+      <c r="J6" s="52" t="s">
         <v>140</v>
       </c>
-      <c r="K6" s="66"/>
-      <c r="L6" s="66"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" s="18" t="s">
@@ -1364,30 +1364,30 @@
       <c r="B7" s="45" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="59"/>
-      <c r="D7" s="59"/>
-      <c r="E7" s="59"/>
-      <c r="F7" s="59"/>
-      <c r="J7" s="54" t="s">
+      <c r="C7" s="64"/>
+      <c r="D7" s="64"/>
+      <c r="E7" s="64"/>
+      <c r="F7" s="64"/>
+      <c r="J7" s="68" t="s">
         <v>133</v>
       </c>
-      <c r="K7" s="54"/>
-      <c r="L7" s="54"/>
+      <c r="K7" s="68"/>
+      <c r="L7" s="68"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>64</v>
       </c>
       <c r="B8" s="47"/>
-      <c r="C8" s="59"/>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="59"/>
-      <c r="J8" s="51" t="s">
+      <c r="C8" s="64"/>
+      <c r="D8" s="64"/>
+      <c r="E8" s="64"/>
+      <c r="F8" s="64"/>
+      <c r="J8" s="65" t="s">
         <v>57</v>
       </c>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
+      <c r="K8" s="66"/>
+      <c r="L8" s="67"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" s="18" t="s">
@@ -1396,35 +1396,35 @@
       <c r="B9" s="45" t="s">
         <v>156</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="59"/>
-      <c r="J9" s="63" t="s">
+      <c r="C9" s="64"/>
+      <c r="D9" s="64"/>
+      <c r="E9" s="64"/>
+      <c r="F9" s="64"/>
+      <c r="J9" s="49" t="s">
         <v>134</v>
       </c>
-      <c r="K9" s="64"/>
-      <c r="L9" s="65"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="51"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" s="11" t="s">
         <v>96</v>
       </c>
       <c r="B10" s="47"/>
-      <c r="C10" s="59"/>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="64"/>
+      <c r="F10" s="64"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" s="11" t="s">
         <v>97</v>
       </c>
       <c r="B11" s="47"/>
-      <c r="C11" s="56"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
-      <c r="F11" s="58"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
+      <c r="F11" s="57"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
@@ -1433,10 +1433,10 @@
       <c r="B12" s="45">
         <v>11</v>
       </c>
-      <c r="C12" s="56"/>
-      <c r="D12" s="57"/>
-      <c r="E12" s="57"/>
-      <c r="F12" s="58"/>
+      <c r="C12" s="55"/>
+      <c r="D12" s="56"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="57"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" s="11" t="s">
@@ -1445,30 +1445,30 @@
       <c r="B13" s="45">
         <v>2021</v>
       </c>
-      <c r="C13" s="56"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
-      <c r="F13" s="58"/>
+      <c r="C13" s="55"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
+      <c r="F13" s="57"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" s="11" t="s">
         <v>61</v>
       </c>
       <c r="B14" s="47"/>
-      <c r="C14" s="56"/>
-      <c r="D14" s="57"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="58"/>
+      <c r="C14" s="55"/>
+      <c r="D14" s="56"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="57"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" s="11" t="s">
         <v>62</v>
       </c>
       <c r="B15" s="47"/>
-      <c r="C15" s="56"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="58"/>
+      <c r="C15" s="55"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="56"/>
+      <c r="F15" s="57"/>
       <c r="H15" s="6"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.3">
@@ -1476,10 +1476,10 @@
         <v>101</v>
       </c>
       <c r="B16" s="47"/>
-      <c r="C16" s="56"/>
-      <c r="D16" s="57"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="58"/>
+      <c r="C16" s="55"/>
+      <c r="D16" s="56"/>
+      <c r="E16" s="56"/>
+      <c r="F16" s="57"/>
       <c r="H16" s="6"/>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -1487,10 +1487,10 @@
         <v>65</v>
       </c>
       <c r="B17" s="47"/>
-      <c r="C17" s="56"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="58"/>
+      <c r="C17" s="55"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="56"/>
+      <c r="F17" s="57"/>
       <c r="H17" s="6"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -1500,12 +1500,12 @@
       <c r="B18" s="46">
         <v>0.75</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="58" t="s">
         <v>136</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="60"/>
       <c r="H18" s="6"/>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -1513,10 +1513,10 @@
         <v>63</v>
       </c>
       <c r="B19" s="47"/>
-      <c r="C19" s="56"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="58"/>
+      <c r="C19" s="55"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="H19" s="6"/>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1526,10 +1526,10 @@
       <c r="B20" s="46" t="s">
         <v>159</v>
       </c>
-      <c r="C20" s="48"/>
-      <c r="D20" s="49"/>
-      <c r="E20" s="49"/>
-      <c r="F20" s="50"/>
+      <c r="C20" s="58"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="60"/>
       <c r="H20" s="6"/>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -1540,12 +1540,12 @@
         <v>49</v>
       </c>
       <c r="B22" s="21"/>
-      <c r="C22" s="60" t="s">
+      <c r="C22" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D22" s="60"/>
-      <c r="E22" s="60"/>
-      <c r="F22" s="60"/>
+      <c r="D22" s="54"/>
+      <c r="E22" s="54"/>
+      <c r="F22" s="54"/>
       <c r="H22" s="6"/>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -1555,10 +1555,10 @@
       <c r="B23" s="26">
         <v>0</v>
       </c>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="61"/>
+      <c r="C23" s="53"/>
+      <c r="D23" s="53"/>
+      <c r="E23" s="53"/>
+      <c r="F23" s="53"/>
       <c r="H23" s="6"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -1568,10 +1568,10 @@
       <c r="B24" s="26">
         <v>0</v>
       </c>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
-      <c r="E24" s="61"/>
-      <c r="F24" s="61"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="53"/>
+      <c r="F24" s="53"/>
       <c r="H24" s="6"/>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -1581,12 +1581,12 @@
       <c r="B25" s="26">
         <v>0.25</v>
       </c>
-      <c r="C25" s="61" t="s">
+      <c r="C25" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="61"/>
+      <c r="D25" s="53"/>
+      <c r="E25" s="53"/>
+      <c r="F25" s="53"/>
       <c r="H25" s="6"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -1596,12 +1596,12 @@
       <c r="B26" s="26">
         <v>0.1</v>
       </c>
-      <c r="C26" s="61" t="s">
+      <c r="C26" s="53" t="s">
         <v>119</v>
       </c>
-      <c r="D26" s="61"/>
-      <c r="E26" s="61"/>
-      <c r="F26" s="61"/>
+      <c r="D26" s="53"/>
+      <c r="E26" s="53"/>
+      <c r="F26" s="53"/>
       <c r="H26" s="6"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -1612,10 +1612,10 @@
         <f>SUM(B25:B26)</f>
         <v>0.35</v>
       </c>
-      <c r="C27" s="67"/>
-      <c r="D27" s="68"/>
-      <c r="E27" s="68"/>
-      <c r="F27" s="69"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="63"/>
       <c r="H27" s="6"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -1630,12 +1630,12 @@
         <v>47</v>
       </c>
       <c r="B30" s="21"/>
-      <c r="C30" s="60" t="s">
+      <c r="C30" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D30" s="60"/>
-      <c r="E30" s="60"/>
-      <c r="F30" s="60"/>
+      <c r="D30" s="54"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="54"/>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="18" t="s">
@@ -1644,10 +1644,10 @@
       <c r="B31" s="44">
         <v>0</v>
       </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="61"/>
+      <c r="C31" s="53"/>
+      <c r="D31" s="53"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="53"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="18" t="s">
@@ -1656,10 +1656,10 @@
       <c r="B32" s="44">
         <v>0</v>
       </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="61"/>
-      <c r="E32" s="61"/>
-      <c r="F32" s="61"/>
+      <c r="C32" s="53"/>
+      <c r="D32" s="53"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="53"/>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="18" t="s">
@@ -1668,10 +1668,10 @@
       <c r="B33" s="44">
         <v>0</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="61"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="53"/>
+      <c r="F33" s="53"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="18" t="s">
@@ -1680,22 +1680,22 @@
       <c r="B34" s="44">
         <v>0</v>
       </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="61"/>
-      <c r="E34" s="61"/>
-      <c r="F34" s="61"/>
+      <c r="C34" s="53"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="53"/>
+      <c r="F34" s="53"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="18" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="44">
-        <v>0</v>
-      </c>
-      <c r="C35" s="61"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="61"/>
+        <v>0.1</v>
+      </c>
+      <c r="C35" s="53"/>
+      <c r="D35" s="53"/>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="18" t="s">
@@ -1704,10 +1704,10 @@
       <c r="B36" s="44">
         <v>0</v>
       </c>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="61"/>
-      <c r="F36" s="61"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="18" t="s">
@@ -1716,10 +1716,10 @@
       <c r="B37" s="41">
         <v>0</v>
       </c>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
-      <c r="F37" s="61"/>
+      <c r="C37" s="53"/>
+      <c r="D37" s="53"/>
+      <c r="E37" s="53"/>
+      <c r="F37" s="53"/>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="18" t="s">
@@ -1728,12 +1728,12 @@
       <c r="B38" s="27">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="C38" s="61" t="s">
+      <c r="C38" s="53" t="s">
         <v>137</v>
       </c>
-      <c r="D38" s="61"/>
-      <c r="E38" s="61"/>
-      <c r="F38" s="61"/>
+      <c r="D38" s="53"/>
+      <c r="E38" s="53"/>
+      <c r="F38" s="53"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="18" t="s">
@@ -1743,12 +1743,12 @@
         <f>2/171.3</f>
         <v>1.1675423234092236E-2</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="53" t="s">
         <v>143</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="61"/>
+      <c r="D39" s="53"/>
+      <c r="E39" s="53"/>
+      <c r="F39" s="53"/>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B40" s="8"/>
@@ -1761,12 +1761,12 @@
         <v>83</v>
       </c>
       <c r="B42" s="21"/>
-      <c r="C42" s="60" t="s">
+      <c r="C42" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D42" s="60"/>
-      <c r="E42" s="60"/>
-      <c r="F42" s="60"/>
+      <c r="D42" s="54"/>
+      <c r="E42" s="54"/>
+      <c r="F42" s="54"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="18" t="s">
@@ -1775,12 +1775,12 @@
       <c r="B43" s="29">
         <v>60</v>
       </c>
-      <c r="C43" s="61" t="s">
+      <c r="C43" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
-      <c r="F43" s="61"/>
+      <c r="D43" s="53"/>
+      <c r="E43" s="53"/>
+      <c r="F43" s="53"/>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="18" t="s">
@@ -1789,12 +1789,12 @@
       <c r="B44" s="29">
         <v>60</v>
       </c>
-      <c r="C44" s="61" t="s">
+      <c r="C44" s="53" t="s">
         <v>138</v>
       </c>
-      <c r="D44" s="61"/>
-      <c r="E44" s="61"/>
-      <c r="F44" s="61"/>
+      <c r="D44" s="53"/>
+      <c r="E44" s="53"/>
+      <c r="F44" s="53"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="18" t="s">
@@ -1803,12 +1803,12 @@
       <c r="B45" s="29">
         <v>30</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="53" t="s">
         <v>139</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="61"/>
-      <c r="F45" s="61"/>
+      <c r="D45" s="53"/>
+      <c r="E45" s="53"/>
+      <c r="F45" s="53"/>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.3"/>
     <row r="47" spans="1:6" x14ac:dyDescent="0.3"/>
@@ -1817,12 +1817,12 @@
         <v>84</v>
       </c>
       <c r="B48" s="21"/>
-      <c r="C48" s="60" t="s">
+      <c r="C48" s="54" t="s">
         <v>121</v>
       </c>
-      <c r="D48" s="60"/>
-      <c r="E48" s="60"/>
-      <c r="F48" s="60"/>
+      <c r="D48" s="54"/>
+      <c r="E48" s="54"/>
+      <c r="F48" s="54"/>
     </row>
     <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49" s="18" t="s">
@@ -1831,12 +1831,12 @@
       <c r="B49" s="30">
         <v>0.15</v>
       </c>
-      <c r="C49" s="61" t="s">
+      <c r="C49" s="53" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="61"/>
-      <c r="E49" s="61"/>
-      <c r="F49" s="61"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
+      <c r="F49" s="53"/>
     </row>
     <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50" s="18" t="s">
@@ -1845,12 +1845,12 @@
       <c r="B50" s="30">
         <v>0.21</v>
       </c>
-      <c r="C50" s="61" t="s">
+      <c r="C50" s="53" t="s">
         <v>131</v>
       </c>
-      <c r="D50" s="61"/>
-      <c r="E50" s="61"/>
-      <c r="F50" s="61"/>
+      <c r="D50" s="53"/>
+      <c r="E50" s="53"/>
+      <c r="F50" s="53"/>
     </row>
     <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51" s="18" t="s">
@@ -1859,12 +1859,12 @@
       <c r="B51" s="42">
         <v>7</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="53" t="s">
         <v>132</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="61"/>
+      <c r="D51" s="53"/>
+      <c r="E51" s="53"/>
+      <c r="F51" s="53"/>
     </row>
     <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="B52" s="8"/>
@@ -2894,6 +2894,37 @@
     <row r="101" spans="1:1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="47">
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="J5:L5"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C4:F4"/>
+    <mergeCell ref="C5:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C49:F49"/>
+    <mergeCell ref="C50:F50"/>
+    <mergeCell ref="C51:F51"/>
+    <mergeCell ref="C45:F45"/>
+    <mergeCell ref="C32:F32"/>
+    <mergeCell ref="C33:F33"/>
+    <mergeCell ref="C34:F34"/>
+    <mergeCell ref="C35:F35"/>
+    <mergeCell ref="C42:F42"/>
+    <mergeCell ref="C43:F43"/>
+    <mergeCell ref="C36:F36"/>
+    <mergeCell ref="C37:F37"/>
+    <mergeCell ref="C38:F38"/>
+    <mergeCell ref="C39:F39"/>
     <mergeCell ref="J4:L4"/>
     <mergeCell ref="J9:L9"/>
     <mergeCell ref="J6:L6"/>
@@ -2910,37 +2941,6 @@
     <mergeCell ref="C26:F26"/>
     <mergeCell ref="C27:F27"/>
     <mergeCell ref="C30:F30"/>
-    <mergeCell ref="C49:F49"/>
-    <mergeCell ref="C50:F50"/>
-    <mergeCell ref="C51:F51"/>
-    <mergeCell ref="C45:F45"/>
-    <mergeCell ref="C32:F32"/>
-    <mergeCell ref="C33:F33"/>
-    <mergeCell ref="C34:F34"/>
-    <mergeCell ref="C35:F35"/>
-    <mergeCell ref="C42:F42"/>
-    <mergeCell ref="C43:F43"/>
-    <mergeCell ref="C36:F36"/>
-    <mergeCell ref="C37:F37"/>
-    <mergeCell ref="C38:F38"/>
-    <mergeCell ref="C39:F39"/>
-    <mergeCell ref="C4:F4"/>
-    <mergeCell ref="C5:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C20:F20"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="J5:L5"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <conditionalFormatting sqref="B25:B26">

--- a/Model Inputs ARFORMOTEROL.xlsx
+++ b/Model Inputs ARFORMOTEROL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F39CDF6-D518-4F93-8D03-16AD1A42A625}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE685F20-BFFD-4523-B5FE-B1A0AC7C017C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
+    <workbookView xWindow="1944" yWindow="1092" windowWidth="17280" windowHeight="8976" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
   <sheets>
     <sheet name="Input" sheetId="1" r:id="rId1"/>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1690,7 +1690,7 @@
         <v>53</v>
       </c>
       <c r="B35" s="44">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="C35" s="53"/>
       <c r="D35" s="53"/>

--- a/Model Inputs ARFORMOTEROL.xlsx
+++ b/Model Inputs ARFORMOTEROL.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aeitrheim\Documents\Vertice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE685F20-BFFD-4523-B5FE-B1A0AC7C017C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F66C0CD1-AFF0-4725-A729-9B50DBE9B730}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1944" yWindow="1092" windowWidth="17280" windowHeight="8976" xr2:uid="{717DFAA3-7B66-4F29-9F39-BAA921B8431C}"/>
   </bookViews>
@@ -1251,8 +1251,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E79D91C-6AD2-4213-9CA0-4A97474C00D8}">
   <dimension ref="A1:O101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="C64" sqref="C64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="14.4" zeroHeight="1" x14ac:dyDescent="0.3"/>
@@ -1947,41 +1947,38 @@
       <c r="A56" s="18" t="s">
         <v>99</v>
       </c>
-      <c r="B56" s="31">
-        <v>1</v>
-      </c>
-      <c r="C56" s="31">
-        <v>1</v>
-      </c>
+      <c r="B56" s="31"/>
+      <c r="C56" s="31"/>
       <c r="D56" s="31">
-        <v>1</v>
+        <v>0.79125754807018989</v>
       </c>
       <c r="E56" s="31">
-        <v>1</v>
+        <v>0.93465812323436248</v>
       </c>
       <c r="F56" s="31">
-        <v>1</v>
+        <v>0.95354715354331754</v>
       </c>
       <c r="G56" s="31">
-        <v>1</v>
+        <v>0.96176663656636663</v>
       </c>
       <c r="H56" s="31">
-        <v>1</v>
+        <v>0.96998611958941583</v>
       </c>
       <c r="I56" s="31">
-        <v>1</v>
+        <v>0.96998611958941583</v>
       </c>
       <c r="J56" s="31">
-        <v>1</v>
+        <v>0.96998611958941583</v>
       </c>
       <c r="K56" s="31">
-        <v>1</v>
+        <v>0.96998611958941583</v>
       </c>
       <c r="L56" s="31">
-        <v>1</v>
+        <v>0.96998611958941583</v>
       </c>
       <c r="M56" s="31">
-        <v>1</v>
+        <f>L56</f>
+        <v>0.96998611958941583</v>
       </c>
       <c r="N56" s="36"/>
     </row>
